--- a/algorithm_demo_supplement.xlsx
+++ b/algorithm_demo_supplement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5931724-88D4-40FD-8747-726005D4DFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F541A7-F065-49E7-BC0C-F94730F95409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{A2CB4C35-A1F6-4796-94A5-38F8FE35FB62}"/>
+    <workbookView xWindow="3693" yWindow="1560" windowWidth="19200" windowHeight="9980" xr2:uid="{A2CB4C35-A1F6-4796-94A5-38F8FE35FB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,12 +124,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,12 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,20 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BEF33E-9166-4FED-93EB-2E284797182D}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C2" t="s">
         <v>15</v>
       </c>
@@ -520,7 +512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -540,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -554,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -568,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -582,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -596,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -610,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C10">
         <v>0</v>
       </c>
@@ -624,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C11">
         <v>0</v>
       </c>
@@ -635,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C12">
         <v>0</v>
       </c>
@@ -646,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C13">
         <v>1</v>
       </c>
@@ -657,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C14">
         <v>1</v>
       </c>
@@ -668,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C15">
         <v>2</v>
       </c>
@@ -679,305 +671,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="5">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="G19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="5">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C35" s="3">
         <v>-1</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C43" s="3">
         <v>-1</v>
       </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="6">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C44" s="4">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
